--- a/REyeker-DataAnalyses-Python/data/code_flow/BI_Fibonacci.xlsx
+++ b/REyeker-DataAnalyses-Python/data/code_flow/BI_Fibonacci.xlsx
@@ -396,140 +396,140 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B15">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19">
         <v>461</v>
